--- a/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 29,05</t>
+          <t>22,08; 28,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,09; 38,98</t>
+          <t>33,5; 39,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,64; 33,95</t>
+          <t>29,7; 34,03</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,64; 13,91</t>
+          <t>10,44; 13,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,15</t>
+          <t>15,45; 20,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 16,48</t>
+          <t>13,75; 16,47</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,8</t>
+          <t>8,79; 14,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 20,19</t>
+          <t>14,89; 20,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 16,48</t>
+          <t>12,67; 16,69</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 15,35</t>
+          <t>12,85; 15,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 23,36</t>
+          <t>19,93; 23,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 19,26</t>
+          <t>17,08; 19,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,08; 28,83</t>
+          <t>21,8; 29,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,5; 39,1</t>
+          <t>33,09; 38,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,7; 34,03</t>
+          <t>29,64; 33,95</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 13,63</t>
+          <t>10,64; 13,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 20,14</t>
+          <t>15,13; 20,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 16,47</t>
+          <t>13,87; 16,48</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 14,71</t>
+          <t>8,96; 14,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,1</t>
+          <t>14,74; 20,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 16,69</t>
+          <t>12,52; 16,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 15,58</t>
+          <t>12,63; 15,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,93; 23,38</t>
+          <t>19,96; 23,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 19,26</t>
+          <t>16,98; 19,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>30,63%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 29,05</t>
+          <t>20,94; 28,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,09; 38,98</t>
+          <t>32,24; 37,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,64; 33,95</t>
+          <t>28,56; 32,73</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,64; 13,91</t>
+          <t>8,0; 12,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,15</t>
+          <t>11,92; 19,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 16,48</t>
+          <t>11,03; 15,45</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,26%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 14,8</t>
+          <t>8,87; 14,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 20,19</t>
+          <t>14,68; 20,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 16,48</t>
+          <t>12,36; 16,3</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>16,82%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 15,35</t>
+          <t>9,84; 14,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 23,36</t>
+          <t>16,68; 22,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 19,26</t>
+          <t>14,39; 18,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 28,02</t>
+          <t>20,94; 27,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,24; 37,94</t>
+          <t>32,62; 38,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,56; 32,73</t>
+          <t>28,54; 33,16</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 12,73</t>
+          <t>7,47; 12,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,92; 19,33</t>
+          <t>12,18; 19,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,45</t>
+          <t>10,77; 15,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,64</t>
+          <t>8,77; 14,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,07</t>
+          <t>14,67; 19,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,3</t>
+          <t>12,54; 16,53</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,37</t>
+          <t>10,03; 14,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 22,42</t>
+          <t>16,2; 22,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 18,1</t>
+          <t>14,66; 18,19</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente cansado cuando despierta por la mañana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>124023</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>264050</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>388072</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>107817; 143298</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>245372; 288214</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>361565; 420204</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>245540</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>373935</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>619475</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>170948; 291073</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>272570; 430828</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>487675; 698025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>73084</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>113194</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>186278</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56614; 92142</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>96907; 131837</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>163815; 215871</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>442647</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>751179</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1193825</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>345934; 501073</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>591257; 819821</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1040587; 1291432</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>